--- a/CP05MOAS-GL340/Omaha_Cal_Info_CP05MOAS-GL340_00002.xlsx
+++ b/CP05MOAS-GL340/Omaha_Cal_Info_CP05MOAS-GL340_00002.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Repaired GIT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19830" windowHeight="8055" tabRatio="377"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="6576" tabRatio="377"/>
   </bookViews>
   <sheets>
-    <sheet name="Gliders" sheetId="1" r:id="rId1"/>
+    <sheet name="Moorings" sheetId="1" r:id="rId1"/>
     <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Asset_Cal_Info!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!#REF!</definedName>
-    <definedName name="_FilterDatabase_0">Gliders!#REF!</definedName>
-    <definedName name="_FilterDatabase_0_0">Gliders!$A$1:$J$98</definedName>
-    <definedName name="_FilterDatabase_0_0_0">Gliders!#REF!</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0">Gliders!$A$1:$J$98</definedName>
+    <definedName name="_FilterDatabase_0">Moorings!#REF!</definedName>
+    <definedName name="_FilterDatabase_0_0">Moorings!$A$1:$J$98</definedName>
+    <definedName name="_FilterDatabase_0_0_0">Moorings!#REF!</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0">Moorings!$A$1:$J$98</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0">Asset_Cal_Info!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0">Asset_Cal_Info!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0">Asset_Cal_Info!#REF!</definedName>
@@ -27,10 +32,10 @@
     <definedName name="_FilterDatabase_0_1">Asset_Cal_Info!#REF!</definedName>
     <definedName name="_FilterDatabase_1">Asset_Cal_Info!#REF!</definedName>
     <definedName name="_FilterDatabase_1_1">Asset_Cal_Info!#REF!</definedName>
-    <definedName name="_FilterDatabase_1_1_1">Gliders!$A$1:$J$98</definedName>
+    <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$98</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -73,9 +78,6 @@
     <t>Deployment Number</t>
   </si>
   <si>
-    <t>Glider Serial Number</t>
-  </si>
-  <si>
     <t>CC_scale_factor1</t>
   </si>
   <si>
@@ -115,9 +117,6 @@
     <t>Anchor Launch Time</t>
   </si>
   <si>
-    <t>GP05MOAS-GL340</t>
-  </si>
-  <si>
     <t>CP05MOAS-GL340-01-ADCPAM000</t>
   </si>
   <si>
@@ -134,6 +133,12 @@
   </si>
   <si>
     <t>CP05MOAS-GL340-00-ENG000000</t>
+  </si>
+  <si>
+    <t>Mooring Serial Number</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL340</t>
   </si>
 </sst>
 </file>
@@ -477,7 +482,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,7 +517,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,27 +729,27 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125"/>
-    <col min="7" max="7" width="18.7109375"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.28515625" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="1026" width="8.7109375"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.44140625"/>
+    <col min="7" max="7" width="18.6640625"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875"/>
+    <col min="10" max="10" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,10 +760,10 @@
         <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -779,9 +784,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" s="8">
         <v>340</v>
@@ -797,16 +802,16 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="I2" s="8">
         <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="14">
@@ -818,18 +823,18 @@
         <v>-70.329133333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
     </row>
   </sheetData>
@@ -842,27 +847,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="1019" width="8.7109375"/>
+    <col min="7" max="1019" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -877,9 +882,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="16">
         <v>340</v>
@@ -891,7 +896,7 @@
         <v>648875</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="15">
         <v>0.61</v>
@@ -901,9 +906,9 @@
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="16">
         <v>340</v>
@@ -915,7 +920,7 @@
         <v>648875</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="15">
         <v>0.61</v>
@@ -925,9 +930,9 @@
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="16">
         <v>340</v>
@@ -939,7 +944,7 @@
         <v>648875</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="15">
         <v>0.61</v>
@@ -949,9 +954,9 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="16">
         <v>340</v>
@@ -963,7 +968,7 @@
         <v>648875</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="15">
         <v>0.61</v>
@@ -973,7 +978,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -985,9 +990,9 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="17">
         <v>340</v>
@@ -999,15 +1004,15 @@
         <v>2813</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="18">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="17">
         <v>340</v>
@@ -1019,15 +1024,15 @@
         <v>2813</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="6">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="17">
         <v>340</v>
@@ -1039,15 +1044,15 @@
         <v>2813</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="18">
         <v>1.0760000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="17">
         <v>340</v>
@@ -1059,22 +1064,22 @@
         <v>2813</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="6">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="17">
         <v>340</v>
@@ -1087,16 +1092,16 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="17">
         <v>340</v>
@@ -1109,16 +1114,16 @@
       </c>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="17">
         <v>340</v>
@@ -1131,16 +1136,16 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="17">
         <v>340</v>
@@ -1153,14 +1158,14 @@
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>

--- a/CP05MOAS-GL340/Omaha_Cal_Info_CP05MOAS-GL340_00002.xlsx
+++ b/CP05MOAS-GL340/Omaha_Cal_Info_CP05MOAS-GL340_00002.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Repaired GIT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="6576" tabRatio="377"/>
+    <workbookView xWindow="3020" yWindow="2620" windowWidth="23240" windowHeight="9220" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,12 +30,17 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$98</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Ref Des</t>
   </si>
@@ -102,12 +102,6 @@
     <t>CC_depolarization_ratio</t>
   </si>
   <si>
-    <t>40°02.052'N</t>
-  </si>
-  <si>
-    <t>70°19.748'W</t>
-  </si>
-  <si>
     <t>AT-27</t>
   </si>
   <si>
@@ -139,13 +133,22 @@
   </si>
   <si>
     <t>CP05MOAS-GL340</t>
+  </si>
+  <si>
+    <t>39° 50' N</t>
+  </si>
+  <si>
+    <t>70° 42.5' W</t>
+  </si>
+  <si>
+    <t>EB Line</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -207,7 +210,22 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -232,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -294,13 +312,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -324,17 +357,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -352,8 +379,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 15" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -482,7 +520,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -517,7 +555,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -728,28 +766,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625"/>
-    <col min="7" max="7" width="18.6640625"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875"/>
-    <col min="10" max="10" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36.33203125" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625"/>
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,10 +793,10 @@
         <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -784,62 +817,71 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="8">
+        <v>340</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17">
+        <v>42133</v>
+      </c>
+      <c r="E2" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F2" s="17">
+        <v>42187</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8">
-        <v>340</v>
-      </c>
-      <c r="C2" s="8">
-        <v>2</v>
-      </c>
-      <c r="D2" s="9">
-        <v>42131</v>
-      </c>
-      <c r="E2" s="10">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="19">
+        <v>200</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="14">
+      <c r="K2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="12">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
-        <v>40.034199999999998</v>
-      </c>
-      <c r="M2" s="14">
+        <v>39.833333333333336</v>
+      </c>
+      <c r="M2" s="12">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
-        <v>-70.329133333333331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-70.708333333333329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -847,27 +889,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="1019" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -882,298 +923,303 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="16">
-        <v>340</v>
-      </c>
-      <c r="C2" s="16">
-        <v>2</v>
-      </c>
-      <c r="D2" s="16">
+    <row r="2" spans="1:10">
+      <c r="A2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="14">
+        <v>340</v>
+      </c>
+      <c r="C2" s="14">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14">
         <v>648875</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="13">
         <v>0.61</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="16">
-        <v>340</v>
-      </c>
-      <c r="C3" s="16">
-        <v>2</v>
-      </c>
-      <c r="D3" s="16">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="14">
+        <v>340</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14">
         <v>648875</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="13">
         <v>0.61</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="16">
-        <v>340</v>
-      </c>
-      <c r="C4" s="16">
-        <v>2</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="14">
+        <v>340</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14">
         <v>648875</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <v>0.61</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="16">
-        <v>340</v>
-      </c>
-      <c r="C5" s="16">
-        <v>2</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="14">
+        <v>340</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2</v>
+      </c>
+      <c r="D5" s="14">
         <v>648875</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>0.61</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="17">
-        <v>340</v>
-      </c>
-      <c r="C7" s="17">
-        <v>2</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1">
+      <c r="A7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="15">
+        <v>340</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2</v>
+      </c>
+      <c r="D7" s="15">
         <v>2813</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="17">
-        <v>340</v>
-      </c>
-      <c r="C8" s="17">
-        <v>2</v>
-      </c>
-      <c r="D8" s="17">
+    <row r="8" spans="1:10" s="6" customFormat="1">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="15">
+        <v>340</v>
+      </c>
+      <c r="C8" s="15">
+        <v>2</v>
+      </c>
+      <c r="D8" s="15">
         <v>2813</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="6">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="17">
-        <v>340</v>
-      </c>
-      <c r="C9" s="17">
-        <v>2</v>
-      </c>
-      <c r="D9" s="17">
+    <row r="9" spans="1:10" s="6" customFormat="1">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="15">
+        <v>340</v>
+      </c>
+      <c r="C9" s="15">
+        <v>2</v>
+      </c>
+      <c r="D9" s="15">
         <v>2813</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>1.0760000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="17">
-        <v>340</v>
-      </c>
-      <c r="C10" s="17">
-        <v>2</v>
-      </c>
-      <c r="D10" s="17">
+    <row r="10" spans="1:10" s="6" customFormat="1">
+      <c r="A10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="15">
+        <v>340</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15">
         <v>2813</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="6">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="11" spans="1:10" s="6" customFormat="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1">
+      <c r="A12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="15">
+        <v>340</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2</v>
+      </c>
+      <c r="D12" s="15">
+        <v>9037</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1">
+      <c r="A14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="15">
+        <v>340</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
+      <c r="D14" s="15">
+        <v>123</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" s="6" customFormat="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1">
+      <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="17">
-        <v>340</v>
-      </c>
-      <c r="C12" s="17">
-        <v>2</v>
-      </c>
-      <c r="D12" s="17">
-        <v>9037</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="B16" s="15">
+        <v>340</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
+      <c r="D16" s="15">
+        <v>50154</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" s="6" customFormat="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" s="6" customFormat="1">
+      <c r="A18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="17">
-        <v>340</v>
-      </c>
-      <c r="C14" s="17">
-        <v>2</v>
-      </c>
-      <c r="D14" s="17">
-        <v>123</v>
-      </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="17">
-        <v>340</v>
-      </c>
-      <c r="C16" s="17">
-        <v>2</v>
-      </c>
-      <c r="D16" s="17">
-        <v>50154</v>
-      </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="17">
-        <v>340</v>
-      </c>
-      <c r="C18" s="17">
-        <v>2</v>
-      </c>
-      <c r="D18" s="17">
-        <v>340</v>
-      </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="B18" s="15">
+        <v>340</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
+      <c r="D18" s="15">
+        <v>340</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" s="6" customFormat="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" s="6" customFormat="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>